--- a/OnlineTest/testdata.xlsx
+++ b/OnlineTest/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmp" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -437,7 +438,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
